--- a/PyFi Course for Shell/data/excel_input.xlsx
+++ b/PyFi Course for Shell/data/excel_input.xlsx
@@ -1,64 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AFU and Presentations\Python for Data Analysis\Course Files\Workbooks\Support_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13428" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="retail" sheetId="1" r:id="rId1"/>
-    <sheet name="mfn" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="retail" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mfn" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="combined" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>mfn</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,27 +49,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -376,101 +361,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col width="8.88671875" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>43466</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>43467</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>43468</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>43469</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>43470</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>43471</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>43472</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>102</v>
       </c>
     </row>
@@ -481,104 +492,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>43466</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>43467</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>43468</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>43469</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>43470</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>43471</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>43472</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>43468</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43469</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43470</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43471</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>43472</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>retail</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>43468</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>43469</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>43470</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>43471</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>43472</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mfn</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>